--- a/runes/matrix.xlsx
+++ b/runes/matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\runes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{920CB1EE-7D69-403E-8472-B3AA9639686C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E35E414E-9C31-422F-9CE3-A9406212C00E}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{920CB1EE-7D69-403E-8472-B3AA9639686C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2004D59-04FD-4FC5-98F0-304DC9D160F3}"/>
   <bookViews>
-    <workbookView xWindow="22015" yWindow="-104" windowWidth="22325" windowHeight="12050" xr2:uid="{9667C5D1-FCF1-4FDC-A19A-75DBE5F1F2C8}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{9667C5D1-FCF1-4FDC-A19A-75DBE5F1F2C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C83D380-E585-461F-9EC5-60DF13D718B5}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -2377,11 +2377,11 @@
         <v>25000000</v>
       </c>
       <c r="F49" s="2">
-        <f>D49/(1/6*0.3)-3*D49</f>
-        <v>8500000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <f>(D49/(1/6*0.02))*3-3*D49</f>
+        <v>448500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>3</v>
       </c>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>5</v>
       </c>
@@ -2398,8 +2398,12 @@
         <v>1500000</v>
       </c>
       <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L51" s="2">
+        <f>250/5*100</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>5700.0000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>3</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>5</v>
       </c>
@@ -2439,7 +2443,7 @@
       </c>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -2457,11 +2461,11 @@
         <v>179999.99999999997</v>
       </c>
       <c r="F55" s="2">
-        <f>200/(1/6*0.3)*3-3*200</f>
-        <v>11400.000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <f>200/(1/7*0.01)*3-3*200</f>
+        <v>419400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>3</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>5</v>
       </c>
@@ -2477,12 +2481,12 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>1</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>2</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>3</v>
       </c>
@@ -2542,7 +2546,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>4</v>
       </c>
@@ -2582,7 +2586,7 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4013,7 +4017,7 @@
         <v>15</v>
       </c>
       <c r="X17" s="27">
-        <f t="shared" ref="X5:X17" si="16">MIN(100%,X16+U$7%)</f>
+        <f t="shared" ref="X17" si="16">MIN(100%,X16+U$7%)</f>
         <v>1</v>
       </c>
       <c r="Y17" s="31">

--- a/runes/matrix.xlsx
+++ b/runes/matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\runes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{920CB1EE-7D69-403E-8472-B3AA9639686C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2004D59-04FD-4FC5-98F0-304DC9D160F3}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{920CB1EE-7D69-403E-8472-B3AA9639686C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0306AC89-6343-4A0F-B287-FEF546EF5CC8}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{9667C5D1-FCF1-4FDC-A19A-75DBE5F1F2C8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="184">
   <si>
     <t>嫉妬</t>
   </si>
@@ -53,442 +55,13 @@
     <t>強欲</t>
   </si>
   <si>
-    <t>kongo</t>
-  </si>
-  <si>
-    <t>mado</t>
-  </si>
-  <si>
-    <t>kenro</t>
-  </si>
-  <si>
-    <t>majin</t>
-  </si>
-  <si>
-    <t>tyouku</t>
-  </si>
-  <si>
-    <t>kago</t>
-  </si>
-  <si>
-    <t>houseki</t>
-  </si>
-  <si>
-    <t>meimyaku</t>
-  </si>
-  <si>
-    <t>hiyaku</t>
-  </si>
-  <si>
-    <t>gikou</t>
-  </si>
-  <si>
-    <t>genzou</t>
-  </si>
-  <si>
-    <t>issen</t>
-  </si>
-  <si>
-    <t>isso</t>
-  </si>
-  <si>
-    <t>tyoujun</t>
-  </si>
-  <si>
-    <t>強攻</t>
-  </si>
-  <si>
-    <t>魔道</t>
-  </si>
-  <si>
-    <t xml:space="preserve">堅牢 </t>
-  </si>
-  <si>
-    <t>魔陣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">長駆 </t>
-  </si>
-  <si>
-    <t>加護</t>
-  </si>
-  <si>
-    <t>宝石</t>
-  </si>
-  <si>
-    <t>命脈</t>
-  </si>
-  <si>
-    <t>飛躍</t>
-  </si>
-  <si>
-    <t>技巧</t>
-  </si>
-  <si>
-    <t>幻像</t>
-  </si>
-  <si>
-    <t>一閃</t>
-  </si>
-  <si>
-    <t>一掃</t>
-  </si>
-  <si>
-    <t>超盾</t>
-  </si>
-  <si>
-    <t>疾風</t>
-  </si>
-  <si>
-    <t>彗星</t>
-  </si>
-  <si>
-    <t>疾駆</t>
-  </si>
-  <si>
-    <t>未實裝</t>
-  </si>
-  <si>
-    <t>HP +15%</t>
-  </si>
-  <si>
-    <t>物攻 +10%</t>
-  </si>
-  <si>
-    <t>魔攻 +10%</t>
-  </si>
-  <si>
-    <t>物防 +10%</t>
-  </si>
-  <si>
-    <t>魔防 +10%</t>
-  </si>
-  <si>
-    <t>全狀態耐性 +15</t>
-  </si>
-  <si>
-    <t>起始MP +10</t>
-  </si>
-  <si>
-    <t>命中 +10</t>
-  </si>
-  <si>
-    <t>回避 +10</t>
-  </si>
-  <si>
-    <t>単体攻擊 +5</t>
-  </si>
-  <si>
-    <t>範囲攻擊 +5</t>
-  </si>
-  <si>
-    <t>全防禦 +10</t>
-  </si>
-  <si>
-    <t>3★</t>
-  </si>
-  <si>
-    <t>4★</t>
-  </si>
-  <si>
-    <t>5★</t>
-  </si>
-  <si>
-    <t>物攻</t>
-  </si>
-  <si>
-    <t>基礎屬性1</t>
-  </si>
-  <si>
-    <t>基礎屬性2</t>
-  </si>
-  <si>
-    <t>器用</t>
-  </si>
-  <si>
-    <t>物防</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>魔攻</t>
-  </si>
-  <si>
-    <t>魔防</t>
-  </si>
-  <si>
-    <t>運</t>
-  </si>
-  <si>
-    <t>素早</t>
-  </si>
-  <si>
-    <t>200石</t>
-  </si>
-  <si>
-    <t>100石</t>
-  </si>
-  <si>
-    <t>1-15</t>
-  </si>
-  <si>
-    <t>16-20</t>
-  </si>
-  <si>
-    <t>21-25</t>
-  </si>
-  <si>
-    <t>斬擊耐性</t>
-  </si>
-  <si>
-    <t>打擊耐性</t>
-  </si>
-  <si>
-    <t>刺突耐性</t>
-  </si>
-  <si>
-    <t>射撃耐性</t>
-  </si>
-  <si>
-    <t>魔法耐性</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>9-10</t>
-  </si>
-  <si>
-    <t>毒耐性</t>
-  </si>
-  <si>
-    <t>暈眩耐性</t>
-  </si>
-  <si>
-    <t>麻痺耐性</t>
-  </si>
-  <si>
-    <t>睡眠耐性</t>
-  </si>
-  <si>
-    <t>魅了耐性</t>
-  </si>
-  <si>
-    <t>狂化耐性</t>
-  </si>
-  <si>
-    <t>Clockdown耐性</t>
-  </si>
-  <si>
-    <t>鈍足耐性</t>
-  </si>
-  <si>
-    <t>最大MP</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>暗闇耐性</t>
-  </si>
-  <si>
-    <t>MP回復</t>
-  </si>
-  <si>
-    <t>治癒力</t>
-  </si>
-  <si>
-    <t>根性</t>
-  </si>
-  <si>
-    <t>暴擊率</t>
-  </si>
-  <si>
-    <t>物攻衰弱耐性</t>
-  </si>
-  <si>
-    <t>物防衰弱耐性</t>
-  </si>
-  <si>
-    <t>魔攻衰弱耐性</t>
-  </si>
-  <si>
-    <t>魔防衰弱耐性</t>
-  </si>
-  <si>
-    <t>器用衰弱耐性</t>
-  </si>
-  <si>
-    <t>素早衰弱耐性</t>
-  </si>
-  <si>
-    <t>運衰弱耐性</t>
-  </si>
-  <si>
-    <t>石化耐性</t>
-  </si>
-  <si>
-    <t>沈默耐性</t>
-  </si>
-  <si>
-    <t>移動禁止耐性</t>
-  </si>
-  <si>
-    <t>攻擊禁止耐性</t>
-  </si>
-  <si>
-    <t>死之宣告耐性</t>
-  </si>
-  <si>
-    <t>時停耐性</t>
-  </si>
-  <si>
-    <t>回復無效耐性</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Enchantment total</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>101-150</t>
-  </si>
-  <si>
-    <t>151-175</t>
-  </si>
-  <si>
-    <t>176-200</t>
-  </si>
-  <si>
-    <t>221-320</t>
-  </si>
-  <si>
-    <t>321-370</t>
-  </si>
-  <si>
-    <t>371-420</t>
-  </si>
-  <si>
-    <t>501-600</t>
-  </si>
-  <si>
-    <t>601-650</t>
-  </si>
-  <si>
-    <t>651-700</t>
-  </si>
-  <si>
-    <t>76-90</t>
-  </si>
-  <si>
-    <t>91-95</t>
-  </si>
-  <si>
-    <t>96-100</t>
-  </si>
-  <si>
-    <t>31-45</t>
-  </si>
-  <si>
-    <t>46-50</t>
-  </si>
-  <si>
-    <t>51-55</t>
-  </si>
-  <si>
-    <t>会心</t>
-  </si>
-  <si>
-    <t>覺醒屬性</t>
-  </si>
-  <si>
-    <t>費用 (重刷基礎屬性)</t>
-  </si>
-  <si>
-    <t>覺醒費用</t>
-  </si>
-  <si>
-    <t>重刷</t>
-  </si>
-  <si>
-    <t>升級</t>
-  </si>
-  <si>
-    <t>覺醒屬性(概率)</t>
-  </si>
-  <si>
-    <t>素材</t>
-  </si>
-  <si>
-    <t>費用(3★)</t>
-  </si>
-  <si>
-    <t>費用(4★)</t>
-  </si>
-  <si>
-    <t>費用(5★)</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Rune</t>
   </si>
   <si>
     <t>Bonus</t>
@@ -498,67 +71,505 @@
 要求</t>
   </si>
   <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>強攻</t>
+  </si>
+  <si>
+    <t>kongo</t>
+  </si>
+  <si>
+    <t>物攻 +10%</t>
+  </si>
+  <si>
+    <t>魔道</t>
+  </si>
+  <si>
+    <t>mado</t>
+  </si>
+  <si>
+    <t>魔攻 +10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">堅牢 </t>
+  </si>
+  <si>
+    <t>kenro</t>
+  </si>
+  <si>
+    <t>物防 +10%</t>
+  </si>
+  <si>
+    <t>魔陣</t>
+  </si>
+  <si>
+    <t>majin</t>
+  </si>
+  <si>
+    <t>魔防 +10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長駆 </t>
+  </si>
+  <si>
+    <t>疾風</t>
+  </si>
+  <si>
+    <t>tyouku</t>
+  </si>
+  <si>
     <t>Move +1</t>
   </si>
   <si>
+    <t>未實裝</t>
+  </si>
+  <si>
+    <t>加護</t>
+  </si>
+  <si>
+    <t>kago</t>
+  </si>
+  <si>
+    <t>全狀態耐性 +15</t>
+  </si>
+  <si>
+    <t>宝石</t>
+  </si>
+  <si>
+    <t>houseki</t>
+  </si>
+  <si>
+    <t>起始MP +10</t>
+  </si>
+  <si>
+    <t>命脈</t>
+  </si>
+  <si>
+    <t>meimyaku</t>
+  </si>
+  <si>
+    <t>HP +15%</t>
+  </si>
+  <si>
+    <t>飛躍</t>
+  </si>
+  <si>
+    <t>hiyaku</t>
+  </si>
+  <si>
     <t>Jump +1</t>
   </si>
   <si>
+    <t>技巧</t>
+  </si>
+  <si>
+    <t>彗星</t>
+  </si>
+  <si>
+    <t>gikou</t>
+  </si>
+  <si>
+    <t>命中 +10</t>
+  </si>
+  <si>
+    <t>幻像</t>
+  </si>
+  <si>
+    <t>疾駆</t>
+  </si>
+  <si>
+    <t>genzou</t>
+  </si>
+  <si>
+    <t>回避 +10</t>
+  </si>
+  <si>
+    <t>一閃</t>
+  </si>
+  <si>
+    <t>issen</t>
+  </si>
+  <si>
+    <t>単体攻擊 +5</t>
+  </si>
+  <si>
+    <t>PVP Draft coin換領, 目前只有3-4★</t>
+  </si>
+  <si>
+    <t>一掃</t>
+  </si>
+  <si>
+    <t>isso</t>
+  </si>
+  <si>
+    <t>範囲攻擊 +5</t>
+  </si>
+  <si>
+    <t>超盾</t>
+  </si>
+  <si>
+    <t>tyoujun</t>
+  </si>
+  <si>
+    <t>全防禦 +10</t>
+  </si>
+  <si>
+    <t>猛攻</t>
+  </si>
+  <si>
+    <t>No data</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>基礎屬性1</t>
+  </si>
+  <si>
+    <t>物攻</t>
+  </si>
+  <si>
+    <t>物防</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>魔攻</t>
+  </si>
+  <si>
+    <t>魔防</t>
+  </si>
+  <si>
+    <t>素早</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>基礎屬性2</t>
+  </si>
+  <si>
+    <t>器用</t>
+  </si>
+  <si>
+    <t>会心</t>
+  </si>
+  <si>
+    <t>運</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>3★</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>101-150</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>16-20</t>
+  </si>
+  <si>
+    <t>151-175</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>21-25</t>
+  </si>
+  <si>
+    <t>176-200</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4★</t>
+  </si>
+  <si>
+    <t>31-45</t>
+  </si>
+  <si>
+    <t>221-320</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>46-50</t>
+  </si>
+  <si>
+    <t>321-370</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>51-55</t>
+  </si>
+  <si>
+    <t>371-420</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5★</t>
+  </si>
+  <si>
+    <t>76-90</t>
+  </si>
+  <si>
+    <t>501-600</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>91-95</t>
+  </si>
+  <si>
+    <t>601-650</t>
+  </si>
+  <si>
+    <t>96-100</t>
+  </si>
+  <si>
+    <t>651-700</t>
+  </si>
+  <si>
+    <t>覺醒屬性</t>
+  </si>
+  <si>
+    <t>斬擊攻擊</t>
+  </si>
+  <si>
+    <t>斬擊耐性</t>
+  </si>
+  <si>
+    <t>毒耐性</t>
+  </si>
+  <si>
+    <t>MP回復</t>
+  </si>
+  <si>
+    <t>物攻衰弱耐性</t>
+  </si>
+  <si>
+    <t>暗闇耐性</t>
+  </si>
+  <si>
+    <t>打擊攻擊</t>
+  </si>
+  <si>
+    <t>打擊耐性</t>
+  </si>
+  <si>
+    <t>暈眩耐性</t>
+  </si>
+  <si>
+    <t>最大MP</t>
+  </si>
+  <si>
+    <t>物防衰弱耐性</t>
+  </si>
+  <si>
+    <t>石化耐性</t>
+  </si>
+  <si>
+    <t>刺突攻擊</t>
+  </si>
+  <si>
+    <t>刺突耐性</t>
+  </si>
+  <si>
+    <t>麻痺耐性</t>
+  </si>
+  <si>
+    <t>治癒力</t>
+  </si>
+  <si>
+    <t>魔攻衰弱耐性</t>
+  </si>
+  <si>
+    <t>沈默耐性</t>
+  </si>
+  <si>
+    <t>射撃攻擊</t>
+  </si>
+  <si>
+    <t>射撃耐性</t>
+  </si>
+  <si>
+    <t>睡眠耐性</t>
+  </si>
+  <si>
+    <t>根性</t>
+  </si>
+  <si>
+    <t>魔防衰弱耐性</t>
+  </si>
+  <si>
+    <t>移動禁止耐性</t>
+  </si>
+  <si>
+    <t>魔法攻擊</t>
+  </si>
+  <si>
+    <t>魔法耐性</t>
+  </si>
+  <si>
+    <t>魅了耐性</t>
+  </si>
+  <si>
+    <t>暴擊率</t>
+  </si>
+  <si>
+    <t>器用衰弱耐性</t>
+  </si>
+  <si>
+    <t>攻擊禁止耐性</t>
+  </si>
+  <si>
     <t>跳躍攻擊</t>
   </si>
   <si>
-    <t>射撃攻擊</t>
-  </si>
-  <si>
-    <t>魔法攻擊</t>
-  </si>
-  <si>
-    <t>刺突攻擊</t>
-  </si>
-  <si>
-    <t>打擊攻擊</t>
-  </si>
-  <si>
-    <t>斬擊攻擊</t>
-  </si>
-  <si>
     <t>跳躍耐性</t>
   </si>
   <si>
-    <t>PVP Draft coin換領, 目前只有3-4★</t>
-  </si>
-  <si>
-    <t>猛攻</t>
-  </si>
-  <si>
-    <t>集中</t>
-  </si>
-  <si>
-    <t>No data</t>
-  </si>
-  <si>
-    <t>概率</t>
+    <t>狂化耐性</t>
+  </si>
+  <si>
+    <t>素早衰弱耐性</t>
+  </si>
+  <si>
+    <t>死之宣告耐性</t>
+  </si>
+  <si>
+    <t>Clockdown耐性</t>
+  </si>
+  <si>
+    <t>運衰弱耐性</t>
+  </si>
+  <si>
+    <t>時停耐性</t>
+  </si>
+  <si>
+    <t>鈍足耐性</t>
+  </si>
+  <si>
+    <t>回復無效耐性</t>
+  </si>
+  <si>
+    <t>&lt;---原生, 不理數值機率</t>
+  </si>
+  <si>
+    <t>費用 (重刷基礎屬性)</t>
+  </si>
+  <si>
+    <t>200石</t>
+  </si>
+  <si>
+    <t>覺醒費用</t>
+  </si>
+  <si>
+    <t>素材</t>
+  </si>
+  <si>
+    <t>升級</t>
+  </si>
+  <si>
+    <t>重刷</t>
+  </si>
+  <si>
+    <t>100石</t>
+  </si>
+  <si>
+    <t>覺醒屬性(概率)</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>Enchantment total</t>
+  </si>
+  <si>
+    <t>Fail (Gauge)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>成功率(基本)</t>
+  </si>
+  <si>
+    <t>費用(3★)</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>費用(4★)</t>
+  </si>
+  <si>
+    <t>費用(5★)</t>
+  </si>
+  <si>
+    <t>綠石(3★)</t>
+  </si>
+  <si>
+    <t>綠石(4★)</t>
+  </si>
+  <si>
+    <t>綠石(5★)</t>
+  </si>
+  <si>
+    <t>碎石</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>覺醒</t>
   </si>
   <si>
-    <t>綠石(3★)</t>
-  </si>
-  <si>
-    <t>綠石(4★)</t>
-  </si>
-  <si>
-    <t>綠石(5★)</t>
-  </si>
-  <si>
-    <t>碎石</t>
-  </si>
-  <si>
-    <t>Fail (Gauge)</t>
-  </si>
-  <si>
-    <t>成功率(基本)</t>
+    <t>Minimum</t>
   </si>
   <si>
     <t>basic</t>
@@ -577,16 +588,13 @@
   </si>
   <si>
     <t>4th</t>
-  </si>
-  <si>
-    <t>&lt;---原生, 不理數值機率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,8 +758,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1065,19 +1073,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C83D380-E585-461F-9EC5-60DF13D718B5}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="10" width="9.19921875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.19921875" style="2"/>
+    <col min="1" max="10" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1097,9 +1105,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.9">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1120,24 +1134,24 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>"&lt;img src=resources/it_rune_ssr_"&amp;D$2&amp;"_"&amp;$C3&amp;".png&gt;"</f>
@@ -1164,21 +1178,21 @@
         <v>&lt;img src=resources/it_rune_ssr_6_kongo.png&gt;</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" ref="D4:D16" si="1">"&lt;img src=resources/it_rune_ssr_"&amp;D$2&amp;"_"&amp;$C4&amp;".png&gt;"</f>
@@ -1205,21 +1219,21 @@
         <v>&lt;img src=resources/it_rune_ssr_6_mado.png&gt;</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1246,21 +1260,21 @@
         <v>&lt;img src=resources/it_rune_ssr_6_kenro.png&gt;</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1287,21 +1301,21 @@
         <v>&lt;img src=resources/it_rune_ssr_6_majin.png&gt;</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1328,24 +1342,24 @@
         <v>&lt;img src=resources/it_rune_ssr_6_tyouku.png&gt;</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2">
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1372,24 +1386,24 @@
         <v>&lt;img src=resources/it_rune_ssr_6_kago.png&gt;</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2">
         <v>4</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1416,24 +1430,24 @@
         <v>&lt;img src=resources/it_rune_ssr_6_houseki.png&gt;</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K9" s="2">
         <v>4</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1460,21 +1474,21 @@
         <v>&lt;img src=resources/it_rune_ssr_6_meimyaku.png&gt;</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1501,24 +1515,24 @@
         <v>&lt;img src=resources/it_rune_ssr_6_hiyaku.png&gt;</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1545,24 +1559,24 @@
         <v>&lt;img src=resources/it_rune_ssr_6_gikou.png&gt;</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2">
         <v>2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1589,24 +1603,24 @@
         <v>&lt;img src=resources/it_rune_ssr_6_genzou.png&gt;</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2">
         <v>4</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1633,24 +1647,24 @@
         <v>&lt;img src=resources/it_rune_ssr_6_issen.png&gt;</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2">
         <v>2</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1677,24 +1691,24 @@
         <v>&lt;img src=resources/it_rune_ssr_6_isso.png&gt;</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K15" s="2">
         <v>2</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1721,112 +1735,112 @@
         <v>&lt;img src=resources/it_rune_ssr_6_tyoujun.png&gt;</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2">
         <v>4</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J22" s="11">
         <v>0.7</v>
@@ -1838,24 +1852,24 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="D23" s="19" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J23" s="11">
         <v>0.2</v>
@@ -1867,24 +1881,24 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="D24" s="19" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J24" s="11">
         <v>0.1</v>
@@ -1896,24 +1910,24 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>90</v>
@@ -1928,24 +1942,24 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="D26" s="20" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J26" s="11">
         <v>0.2</v>
@@ -1957,24 +1971,24 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="D27" s="20" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J27" s="11">
         <v>0.1</v>
@@ -1986,27 +2000,27 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J28" s="11">
         <v>0.7</v>
@@ -2018,21 +2032,21 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="D29" s="20" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="I29" s="21">
         <v>9</v>
@@ -2047,21 +2061,21 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="D30" s="20" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I30" s="21">
         <v>10</v>
@@ -2076,154 +2090,154 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="D33" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="D34" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="D35" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="D36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="D37" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D33" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D34" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D36" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D37" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="18" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="18" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="18" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="18" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="18"/>
@@ -2231,7 +2245,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="D41" s="33">
         <f>(1/6)^3</f>
         <v>4.6296296296296294E-3</v>
@@ -2257,34 +2271,34 @@
         <v>1.953125E-3</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C44" s="8">
         <v>300000</v>
@@ -2302,9 +2316,9 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C45" s="8">
         <v>600000</v>
@@ -2322,12 +2336,12 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2">
         <f>200/J30</f>
@@ -2342,26 +2356,26 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -2381,7 +2395,7 @@
         <v>448500000</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="B50" s="2">
         <v>3</v>
       </c>
@@ -2390,7 +2404,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="B51" s="2">
         <v>5</v>
       </c>
@@ -2403,9 +2417,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -2414,14 +2428,14 @@
         <v>1000000</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="F52" s="2">
         <f>100/(1/6*0.3)*3-3*100</f>
         <v>5700.0000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="B53" s="2">
         <v>3</v>
       </c>
@@ -2434,7 +2448,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="B54" s="2">
         <v>5</v>
       </c>
@@ -2443,9 +2457,9 @@
       </c>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -2454,7 +2468,7 @@
         <v>1500000</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="E55" s="2">
         <f>200/(0.02/6)*3</f>
@@ -2465,7 +2479,7 @@
         <v>419400</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="B56" s="2">
         <v>3</v>
       </c>
@@ -2473,7 +2487,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="B57" s="2">
         <v>5</v>
       </c>
@@ -2481,12 +2495,12 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="15">
         <v>1</v>
       </c>
@@ -2494,7 +2508,7 @@
         <v>0.4</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="E61" s="10">
         <v>0.4</v>
@@ -2506,7 +2520,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="15">
         <v>2</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>0.3</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="E62" s="10">
         <v>0.3</v>
@@ -2526,7 +2540,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="15">
         <v>3</v>
       </c>
@@ -2534,7 +2548,7 @@
         <v>0.2</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E63" s="10">
         <v>0.2</v>
@@ -2546,7 +2560,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="15">
         <v>4</v>
       </c>
@@ -2554,13 +2568,13 @@
         <v>0.08</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E64" s="10">
         <v>0.08</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="15">
         <v>5</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>0.02</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="E65" s="10">
         <v>0.02</v>
@@ -2589,64 +2603,64 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="3.8984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.8984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.8984375" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.8984375" customWidth="1"/>
-    <col min="15" max="19" width="8.796875" customWidth="1"/>
-    <col min="25" max="25" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.796875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="3.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="19" width="8.85546875" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="T1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="B2" s="23" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="N2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="O2" t="s">
         <v>169</v>
@@ -2661,13 +2675,13 @@
         <v>172</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="Z2" s="32">
         <v>540000</v>
@@ -2679,9 +2693,9 @@
         <v>1080000</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32">
       <c r="A3" s="22" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B3" s="23">
         <v>3</v>
@@ -2765,9 +2779,9 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32">
       <c r="A4" s="22" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B4" s="23">
         <v>5</v>
@@ -2857,9 +2871,9 @@
         <v>486000</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32">
       <c r="A5" s="22" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B5" s="23">
         <v>7</v>
@@ -2949,9 +2963,9 @@
         <v>874800</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32">
       <c r="A6" s="29" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
@@ -3027,7 +3041,7 @@
         <v>962280.00000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>11</v>
       </c>
@@ -3125,7 +3139,7 @@
         <v>688905.00000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3226,7 +3240,7 @@
         <v>301149.9000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>13</v>
       </c>
@@ -3327,9 +3341,9 @@
         <v>62001.450000000368</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32">
       <c r="A10" s="29" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
@@ -3408,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>21</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>22</v>
       </c>
@@ -3610,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>23</v>
       </c>
@@ -3711,9 +3725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32">
       <c r="A14" s="29" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
@@ -3781,7 +3795,7 @@
       </c>
       <c r="AD14" s="27"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>31</v>
       </c>
@@ -3871,7 +3885,7 @@
       </c>
       <c r="AD15" s="27"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>32</v>
       </c>
@@ -3952,7 +3966,7 @@
       <c r="AC16" s="31"/>
       <c r="AD16" s="27"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32">
       <c r="A17">
         <v>33</v>
       </c>
@@ -4033,9 +4047,9 @@
       <c r="AC17" s="31"/>
       <c r="AD17" s="27"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32">
       <c r="G19" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" ref="I19:Q19" si="18">SUM(I3:I17)</f>
@@ -4091,9 +4105,9 @@
         <v>3483136.3500000006</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32">
       <c r="G20" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4">
@@ -4138,39 +4152,39 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -4184,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -4201,7 +4215,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="B7">
         <f>2/SUM(A6:B6)</f>
         <v>3.2</v>
@@ -4211,13 +4225,13 @@
         <v>3.3103448275862069</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="C9">
         <f>1/0.625</f>
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>100</v>
       </c>
@@ -4231,7 +4245,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <f>A6*A10</f>
         <v>25</v>
